--- a/data/trans_orig/P2B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A59D7B2-47AA-4B55-8DC7-F8D328F99FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFEEFBB-B20A-4F3C-A2DE-AC07CA72A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF49C4BF-C823-48D6-B169-F114634EF825}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FC9C19A-BAA5-4008-8B60-9A638176B461}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Hogares con personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>20,4%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>23,7%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>79,6%</t>
   </si>
   <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>76,3%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>22,0%</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
   </si>
   <si>
     <t>25,8%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>74,2%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
   </si>
   <si>
     <t>76,03%</t>
   </si>
   <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,97 @@
     <t>24,65%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
+    <t>29,76%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>70,24%</t>
   </si>
   <si>
     <t>72,29%</t>
   </si>
   <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>75,82%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,7 +299,7 @@
     <t>47,46%</t>
   </si>
   <si>
-    <t>43,84%</t>
+    <t>43,93%</t>
   </si>
   <si>
     <t>50,84%</t>
@@ -320,19 +308,19 @@
     <t>46,1%</t>
   </si>
   <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
   </si>
   <si>
     <t>46,65%</t>
   </si>
   <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
   </si>
   <si>
     <t>52,54%</t>
@@ -341,187 +329,187 @@
     <t>49,16%</t>
   </si>
   <si>
-    <t>56,16%</t>
+    <t>56,07%</t>
   </si>
   <si>
     <t>53,9%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
   </si>
   <si>
     <t>53,35%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
   </si>
   <si>
     <t>54,44%</t>
   </si>
   <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
   </si>
   <si>
     <t>60,37%</t>
   </si>
   <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
   </si>
   <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
   </si>
   <si>
     <t>39,63%</t>
   </si>
   <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
   </si>
   <si>
     <t>51,18%</t>
   </si>
   <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
   </si>
   <si>
     <t>56,3%</t>
   </si>
   <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
   </si>
   <si>
     <t>53,78%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
   </si>
   <si>
     <t>48,82%</t>
   </si>
   <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
   </si>
   <si>
     <t>43,7%</t>
   </si>
   <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
   </si>
   <si>
     <t>46,22%</t>
   </si>
   <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
   </si>
   <si>
     <t>54,14%</t>
   </si>
   <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
   </si>
   <si>
     <t>53,05%</t>
   </si>
   <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
   </si>
   <si>
     <t>45,86%</t>
   </si>
   <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
   </si>
   <si>
     <t>46,95%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>Hogares con personas que requieren dedicación o cuidados especiales en 2015 (Tasa respuesta: 78,58%)</t>
@@ -548,9 +536,6 @@
     <t>39,79%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
     <t>42,14%</t>
   </si>
   <si>
@@ -578,9 +563,6 @@
     <t>57,86%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
     <t>41,52%</t>
   </si>
   <si>
@@ -650,9 +632,6 @@
     <t>45,8%</t>
   </si>
   <si>
-    <t>56,2%</t>
-  </si>
-  <si>
     <t>46,36%</t>
   </si>
   <si>
@@ -671,9 +650,6 @@
     <t>48,76%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
     <t>54,2%</t>
   </si>
   <si>
@@ -737,217 +713,205 @@
     <t>26,96%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>37,46%</t>
   </si>
   <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
   </si>
   <si>
     <t>73,04%</t>
   </si>
   <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
   </si>
   <si>
     <t>62,54%</t>
   </si>
   <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
   </si>
   <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>21,3%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
   </si>
   <si>
     <t>27,41%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>76,17%</t>
   </si>
   <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>78,7%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>17,52%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
   <si>
     <t>79,28%</t>
   </si>
   <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
   </si>
   <si>
     <t>79,17%</t>
   </si>
   <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>82,48%</t>
   </si>
   <si>
     <t>79,22%</t>
   </si>
   <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
   </si>
   <si>
     <t>69,44%</t>
   </si>
   <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2021F17B-6490-4A8E-8B6D-D39BD0C53834}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644C8126-75D7-4F15-8332-6502AC76F7B3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1796,10 +1760,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -1808,13 +1772,13 @@
         <v>104907</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>189</v>
@@ -1823,13 +1787,13 @@
         <v>199377</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,13 +1808,13 @@
         <v>288769</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>257</v>
@@ -1859,13 +1823,13 @@
         <v>273703</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>536</v>
@@ -1874,13 +1838,13 @@
         <v>562471</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,13 +1912,13 @@
         <v>538090</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>727</v>
@@ -1963,13 +1927,13 @@
         <v>752521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>1251</v>
@@ -1978,13 +1942,13 @@
         <v>1290610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,13 +1963,13 @@
         <v>1926392</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>2072</v>
@@ -2014,13 +1978,13 @@
         <v>2120933</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>3984</v>
@@ -2029,13 +1993,13 @@
         <v>4047326</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,7 +2055,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86CD007-88C5-499D-8C95-45703894414A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FD1725-F342-4E33-821E-858F1AAC85E1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2127,7 +2091,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2234,13 +2198,13 @@
         <v>413135</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -2249,13 +2213,13 @@
         <v>583210</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>920</v>
@@ -2264,13 +2228,13 @@
         <v>996345</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2249,13 @@
         <v>457384</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>643</v>
@@ -2300,13 +2264,13 @@
         <v>681869</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>1070</v>
@@ -2315,13 +2279,13 @@
         <v>1139253</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2353,13 @@
         <v>825031</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>851</v>
@@ -2404,13 +2368,13 @@
         <v>909461</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>1635</v>
@@ -2419,13 +2383,13 @@
         <v>1734491</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2404,13 @@
         <v>690374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>547</v>
@@ -2455,13 +2419,13 @@
         <v>597140</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>1194</v>
@@ -2470,13 +2434,13 @@
         <v>1287515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2508,13 @@
         <v>182903</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>192</v>
@@ -2559,13 +2523,13 @@
         <v>207613</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>358</v>
@@ -2574,13 +2538,13 @@
         <v>390516</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2559,13 @@
         <v>174450</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>139</v>
@@ -2610,13 +2574,13 @@
         <v>161178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>296</v>
@@ -2625,13 +2589,13 @@
         <v>335628</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2663,13 @@
         <v>1421068</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>1581</v>
@@ -2714,13 +2678,13 @@
         <v>1700284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>2913</v>
@@ -2729,13 +2693,13 @@
         <v>3121352</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2714,13 @@
         <v>1322208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>1329</v>
@@ -2765,13 +2729,13 @@
         <v>1440187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>2560</v>
@@ -2780,13 +2744,13 @@
         <v>2762396</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,7 +2806,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8171D7-521A-4D4B-AFD8-B77B1C8C0230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425A02DF-313C-4670-B8A0-FC757A1FC9A7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2949,13 @@
         <v>249228</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>337</v>
@@ -3000,13 +2964,13 @@
         <v>379298</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>591</v>
@@ -3015,13 +2979,13 @@
         <v>628526</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3000,13 @@
         <v>400458</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
@@ -3051,13 +3015,13 @@
         <v>550713</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>903</v>
@@ -3066,13 +3030,13 @@
         <v>951171</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3104,13 @@
         <v>619865</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>767</v>
@@ -3155,13 +3119,13 @@
         <v>795275</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>1353</v>
@@ -3170,13 +3134,13 @@
         <v>1415140</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3155,13 @@
         <v>872905</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>771</v>
@@ -3206,13 +3170,13 @@
         <v>814134</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>1598</v>
@@ -3221,13 +3185,13 @@
         <v>1687039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3259,13 @@
         <v>165470</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -3310,13 +3274,13 @@
         <v>209174</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>350</v>
@@ -3325,13 +3289,13 @@
         <v>374645</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3310,13 @@
         <v>179353</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>189</v>
@@ -3361,13 +3325,13 @@
         <v>199054</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>351</v>
@@ -3376,13 +3340,13 @@
         <v>378407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3414,13 @@
         <v>1034563</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>1303</v>
@@ -3465,13 +3429,13 @@
         <v>1383748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>2294</v>
@@ -3480,13 +3444,13 @@
         <v>2418311</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3465,13 @@
         <v>1452717</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>1453</v>
@@ -3516,13 +3480,13 @@
         <v>1563900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>2852</v>
@@ -3531,13 +3495,13 @@
         <v>3016617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3557,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BE47A2-EAC5-46BC-8E3A-C293BBABA845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A61150-625A-42E6-9146-081EFC9E227C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3700,13 @@
         <v>124110</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>498</v>
@@ -3751,13 +3715,13 @@
         <v>282229</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>669</v>
@@ -3766,13 +3730,13 @@
         <v>406338</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3751,13 @@
         <v>336277</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>818</v>
@@ -3802,13 +3766,13 @@
         <v>471251</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>1250</v>
@@ -3817,13 +3781,13 @@
         <v>807528</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3855,13 @@
         <v>322743</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7">
         <v>527</v>
@@ -3906,13 +3870,13 @@
         <v>514713</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>850</v>
@@ -3921,13 +3885,13 @@
         <v>837456</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3906,13 @@
         <v>1031682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>1735</v>
@@ -3957,13 +3921,13 @@
         <v>1186278</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>2792</v>
@@ -3972,13 +3936,13 @@
         <v>2217960</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4010,13 @@
         <v>89675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -4061,13 +4025,13 @@
         <v>100502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -4076,13 +4040,13 @@
         <v>190178</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4061,13 @@
         <v>343160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>581</v>
@@ -4112,13 +4076,13 @@
         <v>382036</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>969</v>
@@ -4127,13 +4091,13 @@
         <v>725195</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4165,13 @@
         <v>536528</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>1164</v>
@@ -4216,13 +4180,13 @@
         <v>897444</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>1742</v>
@@ -4231,13 +4195,13 @@
         <v>1433972</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4216,13 @@
         <v>1711119</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>3134</v>
@@ -4267,13 +4231,13 @@
         <v>2039565</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>5011</v>
@@ -4282,13 +4246,13 @@
         <v>3750684</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,7 +4308,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFEEFBB-B20A-4F3C-A2DE-AC07CA72A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC865A72-0074-4C0A-9593-F0C96A8A5474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FC9C19A-BAA5-4008-8B60-9A638176B461}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D57D264-5854-4B3A-B5CE-802E51B3AA6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,217 +77,217 @@
     <t>20,4%</t>
   </si>
   <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
   </si>
   <si>
     <t>23,7%</t>
   </si>
   <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>78,17%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
   </si>
   <si>
     <t>75,82%</t>
   </si>
   <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -299,412 +299,412 @@
     <t>47,46%</t>
   </si>
   <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
   </si>
   <si>
     <t>46,1%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
   </si>
   <si>
     <t>46,65%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
   </si>
   <si>
     <t>52,54%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
   </si>
   <si>
     <t>53,9%</t>
   </si>
   <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
   </si>
   <si>
     <t>53,35%</t>
   </si>
   <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
   </si>
   <si>
     <t>54,44%</t>
   </si>
   <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
   </si>
   <si>
     <t>60,37%</t>
   </si>
   <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>39,63%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
   </si>
   <si>
     <t>51,18%</t>
   </si>
   <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
   </si>
   <si>
     <t>56,3%</t>
   </si>
   <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
   </si>
   <si>
     <t>53,78%</t>
   </si>
   <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
     <t>49,75%</t>
   </si>
   <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
   </si>
   <si>
     <t>50,25%</t>
   </si>
   <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2015 (Tasa respuesta: 78,58%)</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
   </si>
   <si>
     <t>41,59%</t>
   </si>
   <si>
-    <t>39,72%</t>
+    <t>43,63%</t>
   </si>
   <si>
     <t>46,94%</t>
   </si>
   <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>44,5%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
   </si>
   <si>
     <t>58,41%</t>
   </si>
   <si>
-    <t>60,28%</t>
+    <t>56,37%</t>
   </si>
   <si>
     <t>53,06%</t>
   </si>
   <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
   </si>
   <si>
     <t>55,5%</t>
   </si>
   <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
   </si>
   <si>
     <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644C8126-75D7-4F15-8332-6502AC76F7B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F674E68-2D02-4B4D-8F5F-CD7424939267}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1602,13 +1602,13 @@
         <v>262894</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>320</v>
@@ -1617,13 +1617,13 @@
         <v>332891</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>572</v>
@@ -1632,13 +1632,13 @@
         <v>595786</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1653,13 @@
         <v>932293</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
         <v>940</v>
@@ -1668,13 +1668,13 @@
         <v>957213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>1856</v>
@@ -1683,13 +1683,13 @@
         <v>1889505</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,7 +1745,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1757,13 +1757,13 @@
         <v>94470</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -1772,13 +1772,13 @@
         <v>104907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>189</v>
@@ -1787,13 +1787,13 @@
         <v>199377</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1808,13 @@
         <v>288769</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>257</v>
@@ -1823,13 +1823,13 @@
         <v>273703</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>536</v>
@@ -1838,13 +1838,13 @@
         <v>562471</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1912,13 @@
         <v>538090</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>727</v>
@@ -1927,13 +1927,13 @@
         <v>752521</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>1251</v>
@@ -1942,13 +1942,13 @@
         <v>1290610</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,7 +1963,7 @@
         <v>1926392</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>75</v>
@@ -2074,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FD1725-F342-4E33-821E-858F1AAC85E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275A5416-0339-4A20-94A2-8313EA9E2FE9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2496,7 +2496,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2696,10 +2696,10 @@
         <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,28 +2714,28 @@
         <v>1322208</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>1329</v>
       </c>
       <c r="I14" s="7">
-        <v>1440187</v>
+        <v>1440188</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>2560</v>
@@ -2744,13 +2744,13 @@
         <v>2762396</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2777,7 @@
         <v>2910</v>
       </c>
       <c r="I15" s="7">
-        <v>3140471</v>
+        <v>3140472</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425A02DF-313C-4670-B8A0-FC757A1FC9A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9900D3BF-884E-445C-86D8-4B227411ED04}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2842,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2949,13 +2949,13 @@
         <v>249228</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>337</v>
@@ -2964,13 +2964,13 @@
         <v>379298</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>591</v>
@@ -2979,13 +2979,13 @@
         <v>628526</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3000,13 @@
         <v>400458</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
@@ -3015,13 +3015,13 @@
         <v>550713</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>903</v>
@@ -3030,13 +3030,13 @@
         <v>951171</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,10 +3122,10 @@
         <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>1353</v>
@@ -3134,13 +3134,13 @@
         <v>1415140</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3155,13 @@
         <v>872905</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>771</v>
@@ -3170,13 +3170,13 @@
         <v>814134</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>1598</v>
@@ -3185,13 +3185,13 @@
         <v>1687039</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,7 +3247,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3259,13 +3259,13 @@
         <v>165470</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -3274,13 +3274,13 @@
         <v>209174</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>350</v>
@@ -3289,13 +3289,13 @@
         <v>374645</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3310,13 @@
         <v>179353</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>189</v>
@@ -3325,13 +3325,13 @@
         <v>199054</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>351</v>
@@ -3340,7 +3340,7 @@
         <v>378407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>204</v>
@@ -3417,10 +3417,10 @@
         <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>1303</v>
@@ -3468,10 +3468,10 @@
         <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="H14" s="7">
         <v>1453</v>
@@ -3576,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A61150-625A-42E6-9146-081EFC9E227C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865233EB-5ADF-4A1D-8E12-2C7F8231566F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3861,7 @@
         <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="7">
         <v>527</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4031,7 +4031,7 @@
         <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>

--- a/data/trans_orig/P2B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC865A72-0074-4C0A-9593-F0C96A8A5474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F0A79E1-0BAD-43AE-97F5-1D0D611F00A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D57D264-5854-4B3A-B5CE-802E51B3AA6A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B1925E78-35B5-489F-A2C2-BE4AB1A8A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,106 +77,118 @@
     <t>20,4%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>23,7%</t>
   </si>
   <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
     <t>22,0%</t>
   </si>
   <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
     <t>25,8%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
   </si>
   <si>
     <t>74,2%</t>
   </si>
   <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
   </si>
   <si>
     <t>76,03%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -185,61 +197,61 @@
     <t>24,65%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>72,29%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>20,26%</t>
+    <t>20,06%</t>
   </si>
   <si>
     <t>23,58%</t>
@@ -248,19 +260,19 @@
     <t>26,19%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
   </si>
   <si>
     <t>78,17%</t>
@@ -269,649 +281,673 @@
     <t>76,42%</t>
   </si>
   <si>
-    <t>79,74%</t>
+    <t>79,94%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
   </si>
   <si>
     <t>75,82%</t>
   </si>
   <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
   </si>
   <si>
     <t>47,46%</t>
   </si>
   <si>
-    <t>44,24%</t>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
   </si>
   <si>
     <t>51,07%</t>
   </si>
   <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
+    <t>55,07%</t>
   </si>
   <si>
     <t>55,5%</t>
   </si>
   <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
   </si>
   <si>
     <t>37,46%</t>
   </si>
   <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>73,04%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>62,54%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>21,3%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
   </si>
   <si>
     <t>27,41%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
   </si>
   <si>
     <t>76,17%</t>
   </si>
   <si>
-    <t>78,7%</t>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>17,52%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>79,28%</t>
   </si>
   <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
   </si>
   <si>
     <t>79,17%</t>
   </si>
   <si>
-    <t>82,48%</t>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>79,22%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>69,44%</t>
   </si>
   <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F674E68-2D02-4B4D-8F5F-CD7424939267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AF14FF-7144-4249-A9A8-FA36A4CECB33}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1602,13 +1638,13 @@
         <v>262894</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>320</v>
@@ -1617,13 +1653,13 @@
         <v>332891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>572</v>
@@ -1632,13 +1668,13 @@
         <v>595786</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1689,13 @@
         <v>932293</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>940</v>
@@ -1668,13 +1704,13 @@
         <v>957213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1856</v>
@@ -1683,13 +1719,13 @@
         <v>1889505</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,7 +1781,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1757,13 +1793,13 @@
         <v>94470</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -1772,13 +1808,13 @@
         <v>104907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>189</v>
@@ -1787,13 +1823,13 @@
         <v>199377</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1844,13 @@
         <v>288769</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>257</v>
@@ -1823,13 +1859,13 @@
         <v>273703</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>536</v>
@@ -1838,13 +1874,13 @@
         <v>562471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1948,13 @@
         <v>538090</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>727</v>
@@ -1927,13 +1963,13 @@
         <v>752521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1251</v>
@@ -1942,13 +1978,13 @@
         <v>1290610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1999,13 @@
         <v>1926392</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2072</v>
@@ -1978,13 +2014,13 @@
         <v>2120933</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>3984</v>
@@ -1993,13 +2029,13 @@
         <v>4047326</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2091,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275A5416-0339-4A20-94A2-8313EA9E2FE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E805CC-3FF2-4904-B6BE-C167D5A8DB08}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2091,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2198,13 +2234,13 @@
         <v>413135</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -2213,13 +2249,13 @@
         <v>583210</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>920</v>
@@ -2228,13 +2264,13 @@
         <v>996345</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2285,13 @@
         <v>457384</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>643</v>
@@ -2264,13 +2300,13 @@
         <v>681869</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1070</v>
@@ -2279,13 +2315,13 @@
         <v>1139253</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2389,13 @@
         <v>825031</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>851</v>
@@ -2368,13 +2404,13 @@
         <v>909461</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1635</v>
@@ -2383,13 +2419,13 @@
         <v>1734491</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2440,13 @@
         <v>690374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>547</v>
@@ -2419,13 +2455,13 @@
         <v>597140</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1194</v>
@@ -2434,13 +2470,13 @@
         <v>1287515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,7 +2532,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2508,13 +2544,13 @@
         <v>182903</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>192</v>
@@ -2523,13 +2559,13 @@
         <v>207613</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>358</v>
@@ -2538,13 +2574,13 @@
         <v>390516</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2595,13 @@
         <v>174450</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>139</v>
@@ -2574,13 +2610,13 @@
         <v>161178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>296</v>
@@ -2589,13 +2625,13 @@
         <v>335628</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2699,13 @@
         <v>1421068</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1581</v>
@@ -2678,13 +2714,13 @@
         <v>1700284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>2913</v>
@@ -2693,13 +2729,13 @@
         <v>3121352</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,28 +2750,28 @@
         <v>1322208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1329</v>
       </c>
       <c r="I14" s="7">
-        <v>1440188</v>
+        <v>1440187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>2560</v>
@@ -2744,13 +2780,13 @@
         <v>2762396</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2813,7 @@
         <v>2910</v>
       </c>
       <c r="I15" s="7">
-        <v>3140472</v>
+        <v>3140471</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2806,7 +2842,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9900D3BF-884E-445C-86D8-4B227411ED04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACBCB73-614D-4785-AAEE-213632E4F13C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2842,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2949,13 +2985,13 @@
         <v>249228</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>337</v>
@@ -2964,13 +3000,13 @@
         <v>379298</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>591</v>
@@ -2979,13 +3015,13 @@
         <v>628526</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3036,13 @@
         <v>400458</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
@@ -3015,13 +3051,13 @@
         <v>550713</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>903</v>
@@ -3030,13 +3066,13 @@
         <v>951171</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3140,13 @@
         <v>619865</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>767</v>
@@ -3119,13 +3155,13 @@
         <v>795275</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1353</v>
@@ -3134,13 +3170,13 @@
         <v>1415140</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3191,13 @@
         <v>872905</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>771</v>
@@ -3170,13 +3206,13 @@
         <v>814134</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>1598</v>
@@ -3185,13 +3221,13 @@
         <v>1687039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,7 +3283,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3259,13 +3295,13 @@
         <v>165470</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -3274,13 +3310,13 @@
         <v>209174</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>350</v>
@@ -3289,13 +3325,13 @@
         <v>374645</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3346,13 @@
         <v>179353</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>189</v>
@@ -3325,13 +3361,13 @@
         <v>199054</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>351</v>
@@ -3340,13 +3376,13 @@
         <v>378407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3450,13 @@
         <v>1034563</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>1303</v>
@@ -3429,13 +3465,13 @@
         <v>1383748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>2294</v>
@@ -3444,13 +3480,13 @@
         <v>2418311</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3501,13 @@
         <v>1452717</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>1453</v>
@@ -3480,13 +3516,13 @@
         <v>1563900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>2852</v>
@@ -3495,13 +3531,13 @@
         <v>3016617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,7 +3593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3576,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865233EB-5ADF-4A1D-8E12-2C7F8231566F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B549C7-C7DE-4B94-8A2F-F3034CABE1C7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3593,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3700,13 +3736,13 @@
         <v>124110</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>498</v>
@@ -3715,13 +3751,13 @@
         <v>282229</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>669</v>
@@ -3730,13 +3766,13 @@
         <v>406338</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3787,13 @@
         <v>336277</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>818</v>
@@ -3766,13 +3802,13 @@
         <v>471251</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1250</v>
@@ -3781,13 +3817,13 @@
         <v>807528</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3891,13 @@
         <v>322743</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>527</v>
@@ -3870,13 +3906,13 @@
         <v>514713</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>850</v>
@@ -3885,13 +3921,13 @@
         <v>837456</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3942,13 @@
         <v>1031682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>1735</v>
@@ -3921,13 +3957,13 @@
         <v>1186278</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>2792</v>
@@ -3936,13 +3972,13 @@
         <v>2217960</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,7 +4034,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4010,13 +4046,13 @@
         <v>89675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -4025,13 +4061,13 @@
         <v>100502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -4040,13 +4076,13 @@
         <v>190178</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4097,13 @@
         <v>343160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>581</v>
@@ -4076,13 +4112,13 @@
         <v>382036</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>969</v>
@@ -4091,13 +4127,13 @@
         <v>725195</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4201,13 @@
         <v>536528</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>1164</v>
@@ -4180,13 +4216,13 @@
         <v>897444</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>1742</v>
@@ -4195,13 +4231,13 @@
         <v>1433972</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4252,13 @@
         <v>1711119</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>3134</v>
@@ -4231,13 +4267,13 @@
         <v>2039565</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>5011</v>
@@ -4246,13 +4282,13 @@
         <v>3750684</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,7 +4344,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F0A79E1-0BAD-43AE-97F5-1D0D611F00A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89041CC4-FEC7-4679-A2A1-A87AD0C3C5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B1925E78-35B5-489F-A2C2-BE4AB1A8A76D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{276838EE-0F9F-4EAB-8080-A9F5CDB0D7D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -734,220 +734,220 @@
     <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AF14FF-7144-4249-A9A8-FA36A4CECB33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1055ADB-B607-4E25-BFD3-1D2D356CF83B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1996,7 +1996,7 @@
         <v>1912</v>
       </c>
       <c r="D14" s="7">
-        <v>1926392</v>
+        <v>1926393</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2011,7 +2011,7 @@
         <v>2072</v>
       </c>
       <c r="I14" s="7">
-        <v>2120933</v>
+        <v>2120932</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2047,7 +2047,7 @@
         <v>2436</v>
       </c>
       <c r="D15" s="7">
-        <v>2464482</v>
+        <v>2464483</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2062,7 +2062,7 @@
         <v>2799</v>
       </c>
       <c r="I15" s="7">
-        <v>2873454</v>
+        <v>2873453</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E805CC-3FF2-4904-B6BE-C167D5A8DB08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECC49B8-BA52-4417-8C15-03A125FA45C5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACBCB73-614D-4785-AAEE-213632E4F13C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90131FCC-47FA-4E4E-8F5D-7D7D5496B807}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3447,7 +3447,7 @@
         <v>991</v>
       </c>
       <c r="D13" s="7">
-        <v>1034563</v>
+        <v>1034562</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>214</v>
@@ -3549,7 +3549,7 @@
         <v>2390</v>
       </c>
       <c r="D15" s="7">
-        <v>2487280</v>
+        <v>2487279</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3612,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B549C7-C7DE-4B94-8A2F-F3034CABE1C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715B15F1-1FBF-46DB-9283-D8966456C2D4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3733,7 @@
         <v>171</v>
       </c>
       <c r="D4" s="7">
-        <v>124110</v>
+        <v>114413</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3748,7 +3748,7 @@
         <v>498</v>
       </c>
       <c r="I4" s="7">
-        <v>282229</v>
+        <v>251457</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -3763,7 +3763,7 @@
         <v>669</v>
       </c>
       <c r="N4" s="7">
-        <v>406338</v>
+        <v>365870</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>237</v>
@@ -3784,7 +3784,7 @@
         <v>432</v>
       </c>
       <c r="D5" s="7">
-        <v>336277</v>
+        <v>323331</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>240</v>
@@ -3799,7 +3799,7 @@
         <v>818</v>
       </c>
       <c r="I5" s="7">
-        <v>471251</v>
+        <v>429795</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>243</v>
@@ -3814,7 +3814,7 @@
         <v>1250</v>
       </c>
       <c r="N5" s="7">
-        <v>807528</v>
+        <v>753126</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -3835,7 +3835,7 @@
         <v>603</v>
       </c>
       <c r="D6" s="7">
-        <v>460387</v>
+        <v>437744</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3850,7 @@
         <v>1316</v>
       </c>
       <c r="I6" s="7">
-        <v>753480</v>
+        <v>681252</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3865,7 +3865,7 @@
         <v>1919</v>
       </c>
       <c r="N6" s="7">
-        <v>1213866</v>
+        <v>1118996</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3888,7 +3888,7 @@
         <v>323</v>
       </c>
       <c r="D7" s="7">
-        <v>322743</v>
+        <v>296667</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>249</v>
@@ -3903,7 +3903,7 @@
         <v>527</v>
       </c>
       <c r="I7" s="7">
-        <v>514713</v>
+        <v>562527</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>252</v>
@@ -3918,7 +3918,7 @@
         <v>850</v>
       </c>
       <c r="N7" s="7">
-        <v>837456</v>
+        <v>859194</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>255</v>
@@ -3939,7 +3939,7 @@
         <v>1057</v>
       </c>
       <c r="D8" s="7">
-        <v>1031682</v>
+        <v>1016629</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>258</v>
@@ -3954,7 +3954,7 @@
         <v>1735</v>
       </c>
       <c r="I8" s="7">
-        <v>1186278</v>
+        <v>1182996</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
@@ -3969,7 +3969,7 @@
         <v>2792</v>
       </c>
       <c r="N8" s="7">
-        <v>2217960</v>
+        <v>2199626</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>264</v>
@@ -3990,7 +3990,7 @@
         <v>1380</v>
       </c>
       <c r="D9" s="7">
-        <v>1354425</v>
+        <v>1313296</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4005,7 +4005,7 @@
         <v>2262</v>
       </c>
       <c r="I9" s="7">
-        <v>1700991</v>
+        <v>1745523</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4020,7 @@
         <v>3642</v>
       </c>
       <c r="N9" s="7">
-        <v>3055416</v>
+        <v>3058820</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4043,7 +4043,7 @@
         <v>84</v>
       </c>
       <c r="D10" s="7">
-        <v>89675</v>
+        <v>84388</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>267</v>
@@ -4058,7 +4058,7 @@
         <v>139</v>
       </c>
       <c r="I10" s="7">
-        <v>100502</v>
+        <v>89634</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>270</v>
@@ -4073,7 +4073,7 @@
         <v>223</v>
       </c>
       <c r="N10" s="7">
-        <v>190178</v>
+        <v>174021</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>273</v>
@@ -4094,7 +4094,7 @@
         <v>388</v>
       </c>
       <c r="D11" s="7">
-        <v>343160</v>
+        <v>330938</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>276</v>
@@ -4109,7 +4109,7 @@
         <v>581</v>
       </c>
       <c r="I11" s="7">
-        <v>382036</v>
+        <v>359486</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>279</v>
@@ -4124,7 +4124,7 @@
         <v>969</v>
       </c>
       <c r="N11" s="7">
-        <v>725195</v>
+        <v>690425</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>282</v>
@@ -4145,7 +4145,7 @@
         <v>472</v>
       </c>
       <c r="D12" s="7">
-        <v>432835</v>
+        <v>415326</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4160,7 +4160,7 @@
         <v>720</v>
       </c>
       <c r="I12" s="7">
-        <v>482538</v>
+        <v>449120</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4175,7 @@
         <v>1192</v>
       </c>
       <c r="N12" s="7">
-        <v>915373</v>
+        <v>864446</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4198,7 +4198,7 @@
         <v>578</v>
       </c>
       <c r="D13" s="7">
-        <v>536528</v>
+        <v>495468</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>285</v>
@@ -4213,7 +4213,7 @@
         <v>1164</v>
       </c>
       <c r="I13" s="7">
-        <v>897444</v>
+        <v>903617</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>288</v>
@@ -4228,7 +4228,7 @@
         <v>1742</v>
       </c>
       <c r="N13" s="7">
-        <v>1433972</v>
+        <v>1399085</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>291</v>
@@ -4249,7 +4249,7 @@
         <v>1877</v>
       </c>
       <c r="D14" s="7">
-        <v>1711119</v>
+        <v>1670899</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>294</v>
@@ -4264,7 +4264,7 @@
         <v>3134</v>
       </c>
       <c r="I14" s="7">
-        <v>2039565</v>
+        <v>1972278</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>297</v>
@@ -4279,7 +4279,7 @@
         <v>5011</v>
       </c>
       <c r="N14" s="7">
-        <v>3750684</v>
+        <v>3643177</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>300</v>
@@ -4300,7 +4300,7 @@
         <v>2455</v>
       </c>
       <c r="D15" s="7">
-        <v>2247647</v>
+        <v>2166367</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4315,7 +4315,7 @@
         <v>4298</v>
       </c>
       <c r="I15" s="7">
-        <v>2937009</v>
+        <v>2875895</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4330,7 @@
         <v>6753</v>
       </c>
       <c r="N15" s="7">
-        <v>5184656</v>
+        <v>5042262</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
